--- a/files/CARRIAGE/STDHT_MGN12/BOM_HextrudORT_Carriage_STDHT_MGN12.xlsx
+++ b/files/CARRIAGE/STDHT_MGN12/BOM_HextrudORT_Carriage_STDHT_MGN12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\CARRIAGE\STDHT_MGN12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDF3A57-AA51-4F80-B177-F014C419156B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3179068-52F5-4E74-AF16-3FF571E621AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2247,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2794,7 +2794,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <webPublishItems count="1">
-    <webPublishItem id="4822" divId="BOM_HextrudORT_NOVA_XCarriageMGN9_4822" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\CARRIAGE\STDHT_MGN9\BOM_HextrudORT_Carriage_STDHT_MGN12.htm" autoRepublish="1"/>
+    <webPublishItem id="4822" divId="BOM_HextrudORT_NOVA_XCarriageMGN9_4822" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\CARRIAGE\STDHT_MGN12\BOM_HextrudORT_Carriage_STDHT_MGN12.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/files/CARRIAGE/STDHT_MGN12/BOM_HextrudORT_Carriage_STDHT_MGN12.xlsx
+++ b/files/CARRIAGE/STDHT_MGN12/BOM_HextrudORT_Carriage_STDHT_MGN12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\CARRIAGE\STDHT_MGN12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3179068-52F5-4E74-AF16-3FF571E621AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FAD786-1C72-47E2-8916-DE3DC64346D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,6 +273,36 @@
   </si>
   <si>
     <t>Screw, Cap_M2.5 X 8mm</t>
+  </si>
+  <si>
+    <t>Bearing 5X9X3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* NOTE !</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For Big Bearings (MR95 5X9X2.5) use:
+HextrudORT_ BackPlate_STDHT_MGN12_BB.stl
+For Bearing provided with BMG (MR85 5x8x2.5) use:
+HextrudORT_ BackPlate_STDHT_MGN12.stl</t>
+    </r>
   </si>
   <si>
     <r>
@@ -304,26 +334,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DO NOT SET CURRENT HIGHER THAN 0.400ma in your printer config file. Recommended 0.350.
+      <t xml:space="preserve">DO NOT SET CURRENT HIGHER THAN 0.400ma in your printer config file.
 These motors are Class H and are rated for 180C, they can become VERY HOT and might melt your carriage
 Spec:
-https://miragec79.github.io/HextrudORT/docs/LDO-36STH17-1004AHG-RevA_1.pdf</t>
+https://miragec79.github.io/HextrudORT/docs/LDO-36STH17-1004AHG-RevA_1.pdf
+</t>
     </r>
-  </si>
-  <si>
-    <t>Bearing 5X9X3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="3"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>* NOTE !</t>
+      <t xml:space="preserve">Important Note: ref: https://github.com/MirageC79/HextrudORT/issues/9
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Depending on source of components, printing tolerances and the fact that the design clearances are reduced to a minimal, you may need to file/trim a section of the Nema 14 motor to clear the XY cross member.
+This modifcation will not affect motor performance or reliability.</t>
     </r>
     <r>
       <rPr>
@@ -334,10 +372,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-For Big Bearings (MR95 5X9X2.5) use:
-HextrudORT_ BackPlate_STDHT_MGN12_BB.stl
-For Bearing provided with BMG (MR85 5x8x2.5) use:
-HextrudORT_ BackPlate_STDHT_MGN12.stl</t>
+</t>
     </r>
   </si>
 </sst>
@@ -2248,7 +2283,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2301,7 +2336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
@@ -2325,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="28"/>
@@ -2345,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>38</v>
@@ -2682,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>43</v>

--- a/files/CARRIAGE/STDHT_MGN12/BOM_HextrudORT_Carriage_STDHT_MGN12.xlsx
+++ b/files/CARRIAGE/STDHT_MGN12/BOM_HextrudORT_Carriage_STDHT_MGN12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\CARRIAGE\STDHT_MGN12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FAD786-1C72-47E2-8916-DE3DC64346D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBC0149-D5EE-4B15-8789-BD17546264B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,10 +192,6 @@
 - Support interface: yes
 - Full fan at first support interfacing layer</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.thingiverse.com/thing:4786341
-alternate: https://github.com/MirageC79/HextrudORT/tree/main/files/STDHT_MGN9_NOVA/STL</t>
   </si>
   <si>
     <t>Thingiverse
@@ -374,6 +370,10 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>https://www.thingiverse.com/thing:4810748
+alternate: https://github.com/MirageC79/HextrudORT/tree/main/files/CARRIAGE/STDHT_MGN12/STL</t>
   </si>
 </sst>
 </file>
@@ -2282,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="2" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>38</v>
@@ -2360,14 +2360,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>38</v>
@@ -2377,26 +2377,26 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>38</v>
@@ -2406,26 +2406,26 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>38</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>39</v>
@@ -2465,7 +2465,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>38</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>39</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>39</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>39</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>39</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>39</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>39</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>39</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>39</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>37</v>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>15</v>
@@ -2717,18 +2717,18 @@
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>37</v>
@@ -2753,15 +2753,15 @@
         <v>40</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>37</v>
@@ -2786,15 +2786,15 @@
         <v>41</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>37</v>
@@ -2817,10 +2817,10 @@
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
